--- a/qz_fuse/test_case/test_case.xlsx
+++ b/qz_fuse/test_case/test_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>api_id</t>
   </si>
@@ -99,6 +99,15 @@
     <t>Expected_results</t>
   </si>
   <si>
+    <t>Be_dependent</t>
+  </si>
+  <si>
+    <t>dependent</t>
+  </si>
+  <si>
+    <t>dependent_case_id</t>
+  </si>
+  <si>
     <t>is_run</t>
   </si>
   <si>
@@ -121,6 +130,15 @@
   </si>
   <si>
     <t>"returnCode":"0000","returnMessage":"成功"</t>
+  </si>
+  <si>
+    <t>kj_r_02</t>
+  </si>
+  <si>
+    <t>红票_一行明细</t>
+  </si>
+  <si>
+    <t>kj_r_02_开具_红_单条明细.json</t>
   </si>
   <si>
     <t>函数</t>
@@ -152,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -173,11 +191,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,16 +297,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,105 +315,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +337,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,169 +463,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,45 +528,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,26 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +569,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,19 +648,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,112 +669,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,26 +1227,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="36.625" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="49.875" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="29.125" customWidth="1"/>
+    <col min="8" max="8" width="46.625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1256,34 +1277,87 @@
       <c r="I1" t="s">
         <v>27</v>
       </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
+      <c r="L3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1310,34 +1384,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/qz_fuse/test_case/test_case.xlsx
+++ b/qz_fuse/test_case/test_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>api_id</t>
   </si>
@@ -27,6 +27,9 @@
     <t>api_url</t>
   </si>
   <si>
+    <t>api_header</t>
+  </si>
+  <si>
     <t>cookie</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>/fpt-rhqz/prepose</t>
   </si>
   <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
@@ -87,9 +93,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>api_header</t>
-  </si>
-  <si>
     <t>data_IsFlie</t>
   </si>
   <si>
@@ -99,13 +102,13 @@
     <t>Expected_results</t>
   </si>
   <si>
-    <t>Be_dependent</t>
-  </si>
-  <si>
-    <t>dependent</t>
-  </si>
-  <si>
-    <t>dependent_case_id</t>
+    <t>Be_dependent_fields</t>
+  </si>
+  <si>
+    <t>d_case_id</t>
+  </si>
+  <si>
+    <t>dependent_fields</t>
   </si>
   <si>
     <t>is_run</t>
@@ -120,9 +123,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -132,6 +132,15 @@
     <t>"returnCode":"0000","returnMessage":"成功"</t>
   </si>
   <si>
+    <t>{
+ "request": "",
+ "response": [
+  "interface.data.content.DATA.FP_DM",
+  "interface.data.content.DATA.FP_HM"
+ ]
+}</t>
+  </si>
+  <si>
     <t>kj_r_02</t>
   </si>
   <si>
@@ -139,6 +148,12 @@
   </si>
   <si>
     <t>kj_r_02_开具_红_单条明细.json</t>
+  </si>
+  <si>
+    <t>{
+ "REQUEST_COMMON_FPKJ.YFP_DM": "interface.data.content.DATA.FP_DM",
+ "REQUEST_COMMON_FPKJ.YFP_HM": "interface.data.content.DATA.FP_HM"
+}</t>
   </si>
   <si>
     <t>函数</t>
@@ -192,74 +207,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,23 +292,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,192 +352,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -532,16 +547,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,26 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +624,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -636,151 +666,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1130,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1141,15 +1177,16 @@
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="9" width="19.125" customWidth="1"/>
-    <col min="10" max="10" width="21.875" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="5" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="10" width="19.125" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,42 +1217,48 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="29" spans="12:12">
-      <c r="L29" t="s">
-        <v>19</v>
+    <row r="29" spans="13:13">
+      <c r="M29" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1230,133 +1273,126 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="36.625" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="29.125" customWidth="1"/>
-    <col min="8" max="8" width="46.625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="42.625" customWidth="1"/>
+    <col min="9" max="9" width="40.125" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="70.25" customWidth="1"/>
     <col min="12" max="12" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" ht="33" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" ht="94.5" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" ht="54" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1373,7 +1409,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1384,34 +1420,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
